--- a/RebecadelaPaz/dependency_fields.xlsx
+++ b/RebecadelaPaz/dependency_fields.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rebeca/Documents/Eclipse/workspace/TFG_RebecadelaPaz/RebecadelaPaz/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="58">
   <si>
     <t>N</t>
   </si>
@@ -190,12 +201,15 @@
   </si>
   <si>
     <t>CL_COMPLETIVE_OBJ1</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,137 +560,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -685,12 +699,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -699,77 +713,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -777,253 +791,253 @@
         <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="3" t="s">
+    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="3" t="s">
+    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>20</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
         <v>20</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>20</v>
@@ -1032,12 +1046,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>20</v>
@@ -1046,203 +1060,203 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="36" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>21</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>26</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
-        <v>27</v>
+      <c r="C40" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>28</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
         <v>34</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
@@ -1250,111 +1264,111 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="3" t="s">
+    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
         <v>40</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>24</v>
       </c>
@@ -1362,97 +1376,97 @@
         <v>53</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="3" t="s">
+    <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="3" t="s">
+    <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="3" t="s">
+    <row r="63" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="3" t="s">
+    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>24</v>
       </c>
@@ -1460,113 +1474,141 @@
         <v>53</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="3" t="s">
+    <row r="68" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="3" t="s">
+    <row r="69" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="3" t="s">
+    <row r="70" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="3" t="s">
+    <row r="71" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="3" t="s">
+    <row r="72" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>54</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>55</v>
       </c>
     </row>
